--- a/biology/Botanique/Cassipourea/Cassipourea.xlsx
+++ b/biology/Botanique/Cassipourea/Cassipourea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cassipourea est un genre de plantes à fleurs de la famille des Rhizophoraceae. 
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,9 +579,11 @@
           <t>Liste des espèces et sous-genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017) :
 sous-genre Cassipourea (Cassipourea subgen. Cassipourea)
 Cassipourea afzelii (Oliv.) Alston
 Cassipourea eketensis Baker f.
@@ -597,7 +615,7 @@
 Cassipourea letestui Pellegr.
 Cassipourea nana Breteler
 Cassipourea zenkeri (Engl.) Alston
-Selon BioLib                    (24 juillet 2017)[2] :
+Selon BioLib                    (24 juillet 2017) :
 Cassipourea afzelii (Oliv.) Alston
 Cassipourea alternifolia Breteler
 Cassipourea barteri (Hook.f. ex Oliv.) Engl. &amp; Brehmer
@@ -622,7 +640,7 @@
 Cassipourea ruwensorensis (Engl.) Alston
 Cassipourea schizocalyx C.H.Wright.
 Cassipourea zenkeri (Engl.) Alston
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Cassipourea acuminata Liben
 Cassipourea adamauensis Jacques-Felix apud Pellegr.
 Cassipourea adamii Jacques-Felix
@@ -689,11 +707,11 @@
 Cassipourea trichosticha Alston
 Cassipourea vilhenae Cavaco
 Cassipourea zenkeri (Engl.) Alston
-Selon GRIN            (24 juillet 2017)[4] :
+Selon GRIN            (24 juillet 2017) :
 Cassipourea guianensis Aubl.
-Selon ITIS      (24 juillet 2017)[5] :
+Selon ITIS      (24 juillet 2017) :
 Cassipourea guianensis Aubl.
-Selon NCBI  (24 juillet 2017)[6] :
+Selon NCBI  (24 juillet 2017) :
 Cassipourea ceylanica
 Cassipourea elliptica
 Cassipourea guianensis
@@ -703,7 +721,7 @@
 Cassipourea malosana
 Cassipourea rotundifolia
 Cassipourea sericea
-Selon The Plant List            (24 juillet 2017)[7] :
+Selon The Plant List            (24 juillet 2017) :
 Cassipourea acuminata Liben
 Cassipourea adamauensis Jacq.-Fél. ex Pellegr.
 Cassipourea adamii Jacq.-Fél.
@@ -779,7 +797,7 @@
 Cassipourea trichosticha Alston
 Cassipourea vilhenae Cavaco
 Cassipourea zenkeri (Engl.) Alston
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Cassipourea abyssinica Alston
 Cassipourea acuminata Liben
 Cassipourea adamauensis Jacq.-Fél. ex Pellegr.
